--- a/Proyecto de grado IIND/1. Datos/9. Mapa_R_PM25.xlsx
+++ b/Proyecto de grado IIND/1. Datos/9. Mapa_R_PM25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Proyecto-de-grado-IIND\Proyecto de grado IIND\1. Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3DF33F-87E0-4FEF-9862-F849517C8018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FF47E-343B-4187-9691-77ACA1E2966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{D8908B17-C822-4983-8DAE-B5BADBD758E9}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="15375" windowHeight="7785" xr2:uid="{D8908B17-C822-4983-8DAE-B5BADBD758E9}"/>
   </bookViews>
   <sheets>
     <sheet name="pm25" sheetId="2" r:id="rId1"/>
